--- a/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="230">
   <si>
     <t>API Mode</t>
   </si>
@@ -705,6 +705,33 @@
   </si>
   <si>
     <t>RMA-SNI8-1-3</t>
+  </si>
+  <si>
+    <t>RMA-POP6-001</t>
+  </si>
+  <si>
+    <t>RMA-POP6-002</t>
+  </si>
+  <si>
+    <t>RMA-POP6-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLEQAA2</t>
+  </si>
+  <si>
+    <t>RMA-POP6-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLERAA2</t>
+  </si>
+  <si>
+    <t>RMA-POP6-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLESAA2</t>
+  </si>
+  <si>
+    <t>RMA-POP6-1-3</t>
   </si>
 </sst>
 </file>
@@ -714,7 +741,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="207" x14ac:knownFonts="1">
+  <fonts count="219" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,6 +761,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1968,7 +2067,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="103">
+  <borders count="109">
     <border>
       <left/>
       <right/>
@@ -2282,11 +2381,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="219">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -2492,8 +2609,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="100" fillId="0" fontId="202" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="203" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="101" fillId="0" fontId="204" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="206" fillId="0" borderId="102" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="205" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="102" fillId="0" fontId="206" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="207" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="103" fillId="0" fontId="208" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="209" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="104" fillId="0" fontId="210" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="211" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="105" fillId="0" fontId="212" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="213" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="106" fillId="0" fontId="214" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="215" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="107" fillId="0" fontId="216" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="218" fillId="0" borderId="108" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3281,11 +3410,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.734375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.48046875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.97265625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.6328125" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -3335,10 +3464,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="F2" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -3347,7 +3476,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3364,10 +3493,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F3" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -3376,7 +3505,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3393,10 +3522,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="F4" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -3405,7 +3534,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="239">
   <si>
     <t>API Mode</t>
   </si>
@@ -732,6 +732,33 @@
   </si>
   <si>
     <t>RMA-POP6-1-3</t>
+  </si>
+  <si>
+    <t>RMA-2JPD-001</t>
+  </si>
+  <si>
+    <t>RMA-2JPD-002</t>
+  </si>
+  <si>
+    <t>RMA-2JPD-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLQHAA2</t>
+  </si>
+  <si>
+    <t>RMA-2JPD-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLQIAA2</t>
+  </si>
+  <si>
+    <t>RMA-2JPD-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLQJAA2</t>
+  </si>
+  <si>
+    <t>RMA-2JPD-1-3</t>
   </si>
 </sst>
 </file>
@@ -741,7 +768,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="219" x14ac:knownFonts="1">
+  <fonts count="231" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -761,6 +788,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2067,7 +2166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="109">
+  <borders count="115">
     <border>
       <left/>
       <right/>
@@ -2399,11 +2498,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="231">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -2621,8 +2738,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="106" fillId="0" fontId="214" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="215" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="107" fillId="0" fontId="216" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="218" fillId="0" borderId="108" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="217" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="108" fillId="0" fontId="218" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="219" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="109" fillId="0" fontId="220" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="221" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="110" fillId="0" fontId="222" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="223" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="111" fillId="0" fontId="224" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="225" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="112" fillId="0" fontId="226" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="227" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="113" fillId="0" fontId="228" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="230" fillId="0" borderId="114" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3410,11 +3539,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.48046875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.94140625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.6328125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.9296875" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -3464,10 +3593,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="F2" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -3476,7 +3605,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3493,10 +3622,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F3" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -3505,7 +3634,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3522,10 +3651,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="F4" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -3534,7 +3663,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="266">
   <si>
     <t>API Mode</t>
   </si>
@@ -759,6 +759,87 @@
   </si>
   <si>
     <t>RMA-2JPD-1-3</t>
+  </si>
+  <si>
+    <t>RMA-SNZA-001</t>
+  </si>
+  <si>
+    <t>RMA-SNZA-002</t>
+  </si>
+  <si>
+    <t>RMA-SNZA-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLRFAA2</t>
+  </si>
+  <si>
+    <t>RMA-SNZA-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLRGAA2</t>
+  </si>
+  <si>
+    <t>RMA-SNZA-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLRHAA2</t>
+  </si>
+  <si>
+    <t>RMA-SNZA-1-3</t>
+  </si>
+  <si>
+    <t>RMA-28DO-001</t>
+  </si>
+  <si>
+    <t>RMA-28DO-002</t>
+  </si>
+  <si>
+    <t>RMA-28DO-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLRjAAM</t>
+  </si>
+  <si>
+    <t>RMA-28DO-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLRkAAM</t>
+  </si>
+  <si>
+    <t>RMA-28DO-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLRlAAM</t>
+  </si>
+  <si>
+    <t>RMA-28DO-1-3</t>
+  </si>
+  <si>
+    <t>RMA-4EE3-001</t>
+  </si>
+  <si>
+    <t>RMA-4EE3-002</t>
+  </si>
+  <si>
+    <t>RMA-4EE3-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLRtAAM</t>
+  </si>
+  <si>
+    <t>RMA-4EE3-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLRuAAM</t>
+  </si>
+  <si>
+    <t>RMA-4EE3-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLRvAAM</t>
+  </si>
+  <si>
+    <t>RMA-4EE3-1-3</t>
   </si>
 </sst>
 </file>
@@ -768,7 +849,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="231" x14ac:knownFonts="1">
+  <fonts count="267" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -788,6 +869,222 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2166,7 +2463,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="115">
+  <borders count="133">
     <border>
       <left/>
       <right/>
@@ -2516,11 +2813,65 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="231">
+  <cellXfs count="267">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -2750,8 +3101,44 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="112" fillId="0" fontId="226" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="227" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="113" fillId="0" fontId="228" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="230" fillId="0" borderId="114" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="229" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="114" fillId="0" fontId="230" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="231" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="115" fillId="0" fontId="232" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="233" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="116" fillId="0" fontId="234" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="235" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="117" fillId="0" fontId="236" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="237" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="118" fillId="0" fontId="238" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="239" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="119" fillId="0" fontId="240" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="241" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="120" fillId="0" fontId="242" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="243" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="121" fillId="0" fontId="244" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="245" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="122" fillId="0" fontId="246" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="247" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="123" fillId="0" fontId="248" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="249" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="124" fillId="0" fontId="250" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="251" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="125" fillId="0" fontId="252" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="253" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="126" fillId="0" fontId="254" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="255" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="127" fillId="0" fontId="256" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="257" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="128" fillId="0" fontId="258" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="259" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="129" fillId="0" fontId="260" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="261" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="130" fillId="0" fontId="262" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="263" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="131" fillId="0" fontId="264" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="266" fillId="0" borderId="132" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3539,11 +3926,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.94140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.01171875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.9296875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.1953125" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -3593,10 +3980,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="F2" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -3605,7 +3992,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3622,10 +4009,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="F3" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -3634,7 +4021,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3651,10 +4038,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="F4" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -3663,7 +4050,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="284">
   <si>
     <t>API Mode</t>
   </si>
@@ -840,6 +840,60 @@
   </si>
   <si>
     <t>RMA-4EE3-1-3</t>
+  </si>
+  <si>
+    <t>RMA-FYSM-001</t>
+  </si>
+  <si>
+    <t>RMA-FYSM-002</t>
+  </si>
+  <si>
+    <t>RMA-FYSM-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSNAA2</t>
+  </si>
+  <si>
+    <t>RMA-FYSM-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSOAA2</t>
+  </si>
+  <si>
+    <t>RMA-FYSM-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSPAA2</t>
+  </si>
+  <si>
+    <t>RMA-FYSM-1-3</t>
+  </si>
+  <si>
+    <t>RMA-33V1-001</t>
+  </si>
+  <si>
+    <t>RMA-33V1-002</t>
+  </si>
+  <si>
+    <t>RMA-33V1-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLShAAM</t>
+  </si>
+  <si>
+    <t>RMA-33V1-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSiAAM</t>
+  </si>
+  <si>
+    <t>RMA-33V1-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSjAAM</t>
+  </si>
+  <si>
+    <t>RMA-33V1-1-3</t>
   </si>
 </sst>
 </file>
@@ -849,7 +903,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="267" x14ac:knownFonts="1">
+  <fonts count="291" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -869,6 +923,150 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2463,7 +2661,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="133">
+  <borders count="145">
     <border>
       <left/>
       <right/>
@@ -2867,11 +3065,47 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="291">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -3137,8 +3371,32 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="130" fillId="0" fontId="262" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="263" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="131" fillId="0" fontId="264" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="266" fillId="0" borderId="132" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="265" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="132" fillId="0" fontId="266" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="267" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="133" fillId="0" fontId="268" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="269" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="134" fillId="0" fontId="270" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="271" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="135" fillId="0" fontId="272" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="273" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="136" fillId="0" fontId="274" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="275" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="137" fillId="0" fontId="276" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="277" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="138" fillId="0" fontId="278" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="279" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="139" fillId="0" fontId="280" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="281" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="140" fillId="0" fontId="282" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="283" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="141" fillId="0" fontId="284" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="285" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="142" fillId="0" fontId="286" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="287" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="143" fillId="0" fontId="288" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="290" fillId="0" borderId="144" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3926,11 +4184,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.01171875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.2265625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.1953125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.01171875" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -3980,10 +4238,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="F2" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -3992,7 +4250,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4009,10 +4267,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="F3" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -4021,7 +4279,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4038,10 +4296,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="F4" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -4050,7 +4308,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
